--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,12 +49,12 @@
     <t>returned</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -64,37 +64,46 @@
     <t>waste</t>
   </si>
   <si>
+    <t>probably</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
@@ -106,55 +115,58 @@
     <t>cheap</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>use</t>
+    <t>like</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>like</t>
+    <t>much</t>
   </si>
   <si>
     <t>negative</t>
@@ -190,13 +202,16 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -563,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K3">
         <v>0.875</v>
@@ -703,16 +718,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8157894736842105</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>0.6344086021505376</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="L5">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="M5">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7669902912621359</v>
+        <v>0.78125</v>
       </c>
       <c r="C6">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K6">
-        <v>0.6226415094339622</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.7572815533980582</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>0.546875</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7096774193548387</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>0.4202898550724637</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.704225352112676</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K9">
-        <v>0.3508196721311476</v>
+        <v>0.3565573770491803</v>
       </c>
       <c r="L9">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="M9">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6621621621621622</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C10">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K10">
         <v>0.3113342898134864</v>
@@ -1032,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6302521008403361</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C11">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K11">
-        <v>0.2510373443983402</v>
+        <v>0.2448132780082987</v>
       </c>
       <c r="L11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6190476190476191</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K12">
-        <v>0.225</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5454545454545454</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K13">
-        <v>0.1987767584097859</v>
+        <v>0.2228915662650602</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>262</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5416666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K14">
-        <v>0.1867469879518072</v>
+        <v>0.1957186544342508</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>135</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,10 +1250,10 @@
         <v>0.5</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K15">
-        <v>0.1375661375661376</v>
+        <v>0.1322751322751323</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4869565217391305</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C16">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K16">
-        <v>0.08063102541630149</v>
+        <v>0.08835341365461848</v>
       </c>
       <c r="L16">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1049</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1332,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4337349397590362</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,31 +1365,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K17">
-        <v>0.03378817413905133</v>
+        <v>0.07887817703768624</v>
       </c>
       <c r="L17">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="M17">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1487</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4259259259259259</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,7 +1415,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18">
+        <v>0.03376623376623376</v>
+      </c>
+      <c r="L18">
+        <v>52</v>
+      </c>
+      <c r="M18">
+        <v>53</v>
+      </c>
+      <c r="N18">
+        <v>0.98</v>
+      </c>
+      <c r="O18">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1488</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1408,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4210526315789473</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1426,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1434,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4126984126984127</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1452,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1460,13 +1499,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3937007874015748</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1478,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1486,13 +1525,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3125</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1504,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1512,13 +1551,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.297029702970297</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C23">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1530,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>142</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1538,13 +1577,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2843601895734597</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1556,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>151</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1564,13 +1603,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2628865979381443</v>
+        <v>0.3125</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1582,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>143</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1590,13 +1629,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2584269662921349</v>
+        <v>0.3118811881188119</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1608,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>66</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1616,13 +1655,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2244897959183673</v>
+        <v>0.2843601895734597</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1634,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1642,13 +1681,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2051282051282051</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1660,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1668,13 +1707,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1847826086956522</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C29">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1686,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>225</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1694,13 +1733,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1750741839762611</v>
+        <v>0.1811594202898551</v>
       </c>
       <c r="C30">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1712,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>556</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1720,13 +1759,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1708860759493671</v>
+        <v>0.180379746835443</v>
       </c>
       <c r="C31">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D31">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1738,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1746,13 +1785,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1497797356828194</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C32">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D32">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1764,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>386</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1772,13 +1811,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.14</v>
+        <v>0.1750741839762611</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1790,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>172</v>
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1798,13 +1837,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1314285714285714</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1816,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1824,13 +1863,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.129746835443038</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="C35">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1842,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>275</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1850,13 +1889,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.117816091954023</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C36">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1868,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>307</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1876,13 +1915,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1121495327102804</v>
+        <v>0.1277533039647577</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1894,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>190</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1902,13 +1941,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.09737827715355805</v>
+        <v>0.1235632183908046</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D38">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1920,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>241</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1928,13 +1967,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09315068493150686</v>
+        <v>0.12</v>
       </c>
       <c r="C39">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1946,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>331</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1954,25 +1993,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06696428571428571</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E40">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>418</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1980,25 +2019,129 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.05271828665568369</v>
+        <v>0.1013698630136986</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E41">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>575</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.09363295880149813</v>
+      </c>
+      <c r="C42">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.0625</v>
+      </c>
+      <c r="C43">
+        <v>38</v>
+      </c>
+      <c r="D43">
+        <v>38</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.06013363028953229</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>27</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.05324074074074074</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>25</v>
+      </c>
+      <c r="E45">
+        <v>0.08</v>
+      </c>
+      <c r="F45">
+        <v>0.92</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
